--- a/법률별 건 수 정리(건 수 정렬).xlsx
+++ b/법률별 건 수 정리(건 수 정렬).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>법률명</t>
   </si>
@@ -34,49 +34,64 @@
     <t>안전원고시 제2020-5호[고시]</t>
   </si>
   <si>
+    <t>안전원고시 제2021-5호[고시]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-8호[고시]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-6호[고시]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-7호[고시]</t>
+  </si>
+  <si>
+    <t>장외영향평가서 작성 등에 관한 규정</t>
+  </si>
+  <si>
+    <t>장외영향평가서 검토 등에 관한 규정</t>
+  </si>
+  <si>
     <t>안전원고시 제2021-8호[규정]</t>
   </si>
   <si>
-    <t>안전원고시 제2021-5호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2020-8호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2020-6호[고시]</t>
-  </si>
-  <si>
     <t>안전원고시 제2021-7호[규정]</t>
   </si>
   <si>
-    <t>안전원고시 제2020-7호[고시]</t>
+    <t>위해관리계획서 작성 등에 관한 규정</t>
   </si>
   <si>
     <t>안전원고시 제2020-11호[고시]</t>
   </si>
   <si>
+    <t>위해관리계획서 검토 등에 관한 규정</t>
+  </si>
+  <si>
+    <t>안전원고시 제2021-3호[규정]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-10호[고시]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-9호[고시]</t>
+  </si>
+  <si>
+    <t>안전원고시 제2020-12호[고시]</t>
+  </si>
+  <si>
+    <t>위해관리계획서 이행 등에 관한 규정</t>
+  </si>
+  <si>
+    <t>안전원고시 제2019-11호[고시]</t>
+  </si>
+  <si>
+    <t>장외영향평가서 이행 등에 관한 규정</t>
+  </si>
+  <si>
+    <t>안전원고시 제2021-2호[고시]</t>
+  </si>
+  <si>
     <t>안전원고시 제2021-9호[규정]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2021-3호[규정]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2020-10호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2020-9호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2020-12호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2019-11호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2021-2호[고시]</t>
-  </si>
-  <si>
-    <t>안전원고시 제2021-2호[규정]</t>
   </si>
   <si>
     <t>안전원고시 제2021-3호[고시]</t>
@@ -437,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +474,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1906</v>
+        <v>2007</v>
       </c>
       <c r="C2">
-        <v>44.5</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -492,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>701</v>
+        <v>379</v>
       </c>
       <c r="C5">
-        <v>16.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,10 +518,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="C6">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,10 +529,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,10 +551,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,10 +562,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,10 +573,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -569,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C12">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,10 +595,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -591,10 +606,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -602,10 +617,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -613,10 +628,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -624,10 +639,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -635,10 +650,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -646,10 +661,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -657,9 +672,64 @@
         <v>21</v>
       </c>
       <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
